--- a/biology/Botanique/Campo_da_Aclamação/Campo_da_Aclamação.xlsx
+++ b/biology/Botanique/Campo_da_Aclamação/Campo_da_Aclamação.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Campo_da_Aclama%C3%A7%C3%A3o</t>
+          <t>Campo_da_Aclamação</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campo de Santana ou Praça da República (Place de la République), autrefois connu aussi sous la dénomination de Campo da Aclamação (Champ de l’Acclamation) est l'un des plus anciens parcs de la ville de Rio de Janeiro, au Brésil. I
 Il date de la période coloniale. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Campo_da_Aclama%C3%A7%C3%A3o</t>
+          <t>Campo_da_Aclamação</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Situé dans le centre historique de la ville, il est bordé d'anciens bâtiments rappelant l'histoire du Brésil comme : l'ancien Sénat [1], l'ancien palais de la maison de la Monnaie (actuel siège des Archives Nationales du Brésil), la maison du Maréchal Deodoro da Fonseca, le panthéon du Duc de Caxias[2].
-Au cours du temps, cet espace vert a subi plusieurs changements. Le plus célèbre, qui imprima les caractéristiques générales subsistant encore aujourd'hui malgré des transformations postérieures, fut le projet dirigé  par le paysagiste français Auguste François Marie Glaziou pendant le règne de Pedro II. Ce projet fut également mené par un autre paysagiste français, Paul Villon, responsable des rocailles[3],[4]. 
-Le parc est habité par des agoutis, l'une des animaux caractéristiques les plus marquants du Campo de Santana [5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé dans le centre historique de la ville, il est bordé d'anciens bâtiments rappelant l'histoire du Brésil comme : l'ancien Sénat , l'ancien palais de la maison de la Monnaie (actuel siège des Archives Nationales du Brésil), la maison du Maréchal Deodoro da Fonseca, le panthéon du Duc de Caxias.
+Au cours du temps, cet espace vert a subi plusieurs changements. Le plus célèbre, qui imprima les caractéristiques générales subsistant encore aujourd'hui malgré des transformations postérieures, fut le projet dirigé  par le paysagiste français Auguste François Marie Glaziou pendant le règne de Pedro II. Ce projet fut également mené par un autre paysagiste français, Paul Villon, responsable des rocailles,. 
+Le parc est habité par des agoutis, l'une des animaux caractéristiques les plus marquants du Campo de Santana .
 </t>
         </is>
       </c>
